--- a/biology/Microbiologie/Grégarine/Grégarine.xlsx
+++ b/biology/Microbiologie/Grégarine/Grégarine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gr%C3%A9garine</t>
+          <t>Grégarine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gregarinasina
 Les grégarines (sous-classe des Gregarinasina ou Gregarinea, du latin grex troupeau) sont des micro-organismes protistes, faisant partie des apicomplexés Apicomplexa.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gr%C3%A9garine</t>
+          <t>Grégarine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C'est Léon Dufour, au XIXe siècle qui a proposé le nom de grégarine pour désigner des parasites « vivant en grand nombre » selon sa définition dans l'intestin de divers insectes.
-Les découvertes de nouvelles espèces se firent petit à petit. Par exemple, l'espèce Zygocystis ephemerae, grégarine des éphéméroptères « fut découverte en 1848 par Frantzius chez Ephemera vulgata, puis redécrite sous le nom de Gamocystis francisci par A. Schneider (1882) et de Gamocystis ephemerae par Labbé (1899). »[2]
+Les découvertes de nouvelles espèces se firent petit à petit. Par exemple, l'espèce Zygocystis ephemerae, grégarine des éphéméroptères « fut découverte en 1848 par Frantzius chez Ephemera vulgata, puis redécrite sous le nom de Gamocystis francisci par A. Schneider (1882) et de Gamocystis ephemerae par Labbé (1899). »
 Quelques chercheurs et spécialistes reconnus :
 Aimé Schneider qui donna son nom à quelques espèces de grégarines ;
 Jean Théodoridès, entré au CNRS en 1949, il effectua la majeure partie de sa carrière au laboratoire d'évolution des êtres organisés. Pendant plus de trente ans, il y poursuivit l'étude des grégarines, classe des apicomplexa exclusivement représentée chez les invertébrés. Il restera le spécialiste mondial de ces protozoaires parasites auxquels il a consacré près de 100 publications. Avec Pierre-Paul Grassé, il entreprit en 1955 l'étude des grégarines en microscopie électronique et c'est ce matériel qui révéla la présence de l’ergastoplasme chez les protozoaires ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gr%C3%A9garine</t>
+          <t>Grégarine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Clepsidrina munieri - tube digestif du coléoptère Timarcia tenebricosa
 Botriopsis pyxinia, B. schneideria - tube digestif de coléoptères
